--- a/ドキュメント/その他/残タスク.xlsx
+++ b/ドキュメント/その他/残タスク.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -226,6 +226,85 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロビー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルームが作成されていない状態で「ルーム入室」が押下された場合のダイアログ追加</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウシツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対戦</t>
+    <rPh sb="0" eb="2">
+      <t>タイセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスしたことが分かりづらい。文言を表示する等の検討が必要</t>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>場のカードをクリックするとログを表示</t>
+    <rPh sb="0" eb="1">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -667,9 +746,7 @@
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -691,9 +768,7 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -715,9 +790,7 @@
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -739,9 +812,7 @@
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -763,9 +834,7 @@
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -787,38 +856,72 @@
       <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44899</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44902</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44905</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>

--- a/ドキュメント/その他/残タスク.xlsx
+++ b/ドキュメント/その他/残タスク.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -305,6 +305,31 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>観戦機能(早く上がった場合にほかのプレイヤーの手札を閲覧できる)</t>
+    <rPh sb="0" eb="2">
+      <t>カンセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>エツラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -926,12 +951,24 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44905</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>

--- a/ドキュメント/その他/残タスク.xlsx
+++ b/ドキュメント/その他/残タスク.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -330,6 +330,13 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -901,9 +908,11 @@
         <v>23</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="H9" s="4">
+        <v>44934</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
